--- a/biology/Botanique/Château_Saint-Georges_(Gironde)/Château_Saint-Georges_(Gironde).xlsx
+++ b/biology/Botanique/Château_Saint-Georges_(Gironde)/Château_Saint-Georges_(Gironde).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(Gironde)</t>
+          <t>Château_Saint-Georges_(Gironde)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Saint-Georges est une propriété viticole de 45 ha, située sur la commune de Montagne (Gironde), en appellation Saint-georges-saint-émilion.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(Gironde)</t>
+          <t>Château_Saint-Georges_(Gironde)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 4 tours relatent le passé d’un château féodal, et la façade de style néoclassique de la chartreuse est l’œuvre du célèbre architecte Victor Louis, auteur du Grand-Théâtre de Bordeaux[1],[2].
-Les portails en fer forgé du château ont fait l'objet de publications[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 4 tours relatent le passé d’un château féodal, et la façade de style néoclassique de la chartreuse est l’œuvre du célèbre architecte Victor Louis, auteur du Grand-Théâtre de Bordeaux,.
+Les portails en fer forgé du château ont fait l'objet de publications.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(Gironde)</t>
+          <t>Château_Saint-Georges_(Gironde)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sols argilo-calcaire qui caractérisent le vignoble sont parfaitement adaptés à la culture du merlot, du cabernet sauvignon et du cabernet franc[1]. Les vignes sont entretenues sans irrigation et les raisins sont vendangés à la main, puis foulés et fermentés en cuverie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols argilo-calcaire qui caractérisent le vignoble sont parfaitement adaptés à la culture du merlot, du cabernet sauvignon et du cabernet franc. Les vignes sont entretenues sans irrigation et les raisins sont vendangés à la main, puis foulés et fermentés en cuverie.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(Gironde)</t>
+          <t>Château_Saint-Georges_(Gironde)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(Gironde)</t>
+          <t>Château_Saint-Georges_(Gironde)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,6 +620,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -609,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(Gironde)</t>
+          <t>Château_Saint-Georges_(Gironde)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -627,7 +647,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le château produit trois vins : 
 Château Saint-Georges (grand vin),
